--- a/Documentation/Journaux/Joao-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao-JournalDeTravail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\2emeAnnee\2emeSemestre\MA\Projet-WEB\Mouse-to-House-BDD\Documentation\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0BF2C-194A-4EDC-89DD-8EAAEB3CD6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DD536-EEED-4AF6-8B64-90C659067A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -85,19 +85,28 @@
     <t>M. Hurni nous a expliqué GitHub</t>
   </si>
   <si>
-    <t>Création des différentes features du projet</t>
-  </si>
-  <si>
-    <t>Ajout de quelques tâches au premier sprint</t>
-  </si>
-  <si>
     <t>Icesrum</t>
   </si>
   <si>
     <t>MCD</t>
   </si>
   <si>
-    <t>Finalization du MCD</t>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t>J'ai commencé le MLD</t>
+  </si>
+  <si>
+    <t>J'ai finalizé le MCD</t>
+  </si>
+  <si>
+    <t>J'ai ajouté quelques tâches au premier sprint</t>
+  </si>
+  <si>
+    <t>J'ai créé les différentes features du projet</t>
+  </si>
+  <si>
+    <t>J'ai continué le MLD</t>
   </si>
 </sst>
 </file>
@@ -465,8 +474,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="6"/>
@@ -746,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,10 +916,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -932,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -957,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -982,12 +991,62 @@
         <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>45050</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D10" s="8">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>45050</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="D11" s="8">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Documentation/Journaux/Joao-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao-JournalDeTravail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\2emeAnnee\2emeSemestre\MA\Projet-WEB\Mouse-to-House-BDD\Documentation\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao-Alexandre.CARVA\Documents\GitHub\Mouse-to-House-BDD\Documentation\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DD536-EEED-4AF6-8B64-90C659067A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -107,12 +106,15 @@
   </si>
   <si>
     <t>J'ai continué le MLD</t>
+  </si>
+  <si>
+    <t>J'ai fini le MLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="165" formatCode="hh\.mm&quot; h&quot;;@"/>
@@ -221,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,11 +254,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -443,23 +474,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -474,19 +488,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:H13"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="4">
+    <tableColumn id="1" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" name="Heure début" dataDxfId="9"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="8"/>
+    <tableColumn id="4" name="Durée" dataDxfId="7">
       <calculatedColumnFormula>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lieu" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Thème" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="0"/>
+    <tableColumn id="5" name="Lieu" dataDxfId="6"/>
+    <tableColumn id="6" name="Thème" dataDxfId="5"/>
+    <tableColumn id="7" name="Description" dataDxfId="4"/>
+    <tableColumn id="8" name="Sources" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,25 +768,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="3" width="10" style="13" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="105.6640625" customWidth="1"/>
-    <col min="8" max="8" width="55.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="105.7109375" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -798,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45040</v>
       </c>
@@ -823,7 +837,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45042</v>
       </c>
@@ -848,7 +862,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45043</v>
       </c>
@@ -873,7 +887,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45047</v>
       </c>
@@ -898,7 +912,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45047</v>
       </c>
@@ -923,7 +937,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45047</v>
       </c>
@@ -948,7 +962,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45049</v>
       </c>
@@ -973,7 +987,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45049</v>
       </c>
@@ -998,7 +1012,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45050</v>
       </c>
@@ -1023,7 +1037,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45050</v>
       </c>
@@ -1048,17 +1062,59 @@
       </c>
       <c r="H11" s="7"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>45054</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D12" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.9583333333333415E-2</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>45054</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>-0.37916666666666665</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Journaux/Joao-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao-JournalDeTravail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao-Alexandre.CARVA\Documents\GitHub\Mouse-to-House-BDD\Documentation\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetWeb\Mouse-to-House-BDD\Documentation\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>J'ai fini le MLD</t>
+  </si>
+  <si>
+    <t>Cahier des Charges</t>
+  </si>
+  <si>
+    <t>J'ai fait une mise en comum du cahier des charges avec Evann</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>J'ai commencé le script pour créer la base de données</t>
   </si>
 </sst>
 </file>
@@ -488,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="10"/>
     <tableColumn id="2" name="Heure début" dataDxfId="9"/>
@@ -769,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +849,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45042</v>
       </c>
@@ -1094,15 +1106,48 @@
       <c r="B13" s="15">
         <v>0.37916666666666665</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15">
+        <v>0.39861111111111108</v>
+      </c>
       <c r="D13" s="16">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>-0.37916666666666665</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+        <v>1.9444444444444431E-2</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>45056</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="D14" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>6.1805555555555669E-2</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Documentation/Journaux/Joao-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao-JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>J'ai commencé le script pour créer la base de données</t>
+  </si>
+  <si>
+    <t>M. Meylan</t>
+  </si>
+  <si>
+    <t>J'ai fini le scriptqui crée la base de données</t>
+  </si>
+  <si>
+    <t>J'ai fait un script qui crée un backup de la base de données</t>
   </si>
 </sst>
 </file>
@@ -500,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:H14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:H16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="10"/>
     <tableColumn id="2" name="Heure début" dataDxfId="9"/>
@@ -781,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1157,58 @@
         <v>28</v>
       </c>
       <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>45057</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="D15" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>8.680555555555558E-2</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>45057</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="D16" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Documentation/Journaux/Joao-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao-JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -126,10 +126,16 @@
     <t>M. Meylan</t>
   </si>
   <si>
-    <t>J'ai fini le scriptqui crée la base de données</t>
-  </si>
-  <si>
     <t>J'ai fait un script qui crée un backup de la base de données</t>
+  </si>
+  <si>
+    <t>J'ai fini le script qui crée la base de données</t>
+  </si>
+  <si>
+    <t>J'ai commencé le script qui ajoutera tous les produits à la base de données</t>
+  </si>
+  <si>
+    <t>M. Hurni</t>
   </si>
 </sst>
 </file>
@@ -509,8 +515,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:H17"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="10"/>
     <tableColumn id="2" name="Heure début" dataDxfId="9"/>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1185,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>29</v>
@@ -1206,9 +1212,36 @@
         <v>27</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>45061</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Documentation/Journaux/Joao-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao-JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>M. Hurni</t>
+  </si>
+  <si>
+    <t>J'ai fini la base de données et j'ai fait un backup</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -515,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:H17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:H19"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="10"/>
     <tableColumn id="2" name="Heure début" dataDxfId="9"/>
@@ -796,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1248,52 @@
       <c r="H17" s="17" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="D18" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>45063</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>-0.65763888888888888</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Documentation/Journaux/Joao-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao-JournalDeTravail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetWeb\Mouse-to-House-BDD\Documentation\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao-Alexandre.CARVA\Documents\GitHub\Mouse-to-House-BDD\Documentation\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -84,9 +84,6 @@
     <t>M. Hurni nous a expliqué GitHub</t>
   </si>
   <si>
-    <t>Icesrum</t>
-  </si>
-  <si>
     <t>MCD</t>
   </si>
   <si>
@@ -142,6 +139,21 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>J'ai demandé au prof des explications sur le fonctionnement du nouveau MVC</t>
+  </si>
+  <si>
+    <t>J'ai ajouté plusieurs tâches sur Icescrum concernant le nouveau MVC et le site</t>
+  </si>
+  <si>
+    <t>Icescrum</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>J'ai commencéle layout</t>
   </si>
 </sst>
 </file>
@@ -521,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A1:H19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:H21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="A1:H21"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="10"/>
     <tableColumn id="2" name="Heure début" dataDxfId="9"/>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -988,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1013,10 +1025,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1038,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1063,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1088,10 +1100,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1113,10 +1125,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="17"/>
     </row>
@@ -1138,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="H13" s="17"/>
     </row>
@@ -1163,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="H14" s="17"/>
     </row>
@@ -1188,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1215,10 +1227,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="17"/>
     </row>
@@ -1240,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1267,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,17 +1295,75 @@
       <c r="B19" s="15">
         <v>0.65763888888888888</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D19" s="16">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>-0.65763888888888888</v>
+        <v>4.7222222222222276E-2</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>45070</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="D20" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>5.9722222222222343E-2</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>45071</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D21" s="16">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>9.8611111111111094E-2</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
